--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/SOUTH_CAROLINA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/SOUTH_CAROLINA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1319"/>
+  <dimension ref="A1:D1313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C27">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C28">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C31">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C33">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C42">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C63">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C64">
@@ -1239,7 +1239,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C66">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C70">
@@ -1408,7 +1408,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C79">
@@ -1421,7 +1421,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C80">
@@ -1790,7 +1790,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C108">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C109">
@@ -2055,7 +2055,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C128">
@@ -2151,7 +2151,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C135">
@@ -2177,7 +2177,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2234,7 +2234,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C141">
@@ -2512,7 +2512,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C162">
@@ -2551,7 +2551,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C165">
@@ -2603,7 +2603,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C169">
@@ -2668,12 +2668,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C174">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C176">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C177">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C182">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C189">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C195">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C201">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C212">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C221">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C222">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C223">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C231">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C241">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C245">
@@ -3609,7 +3609,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C246">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C247">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C256">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C257">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C265">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C268">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C275">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C279">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C281">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C283">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C285">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C289">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C295">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C299">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C302">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C305">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C308">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C310">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C316">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C319">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C325">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C326">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C328">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C329">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C331">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C334">
@@ -4919,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C346">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C348">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C350">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C352">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C356">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C367">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C370">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C376">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C380">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C382">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C385">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C391">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C392">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C394">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C395">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C396">
@@ -5613,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C399">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C404">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C405">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C409">
@@ -5769,7 +5769,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C411">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C412">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C414">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C421">
@@ -5912,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C422">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C425">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C430">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C431">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C433">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C443">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C447">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C448">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C450">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C452">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C456">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C461">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C462">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C463">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C466">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C467">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C469">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C470">
@@ -6567,7 +6567,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C472">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C473">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C483">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C485">
@@ -6936,7 +6936,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C500">
@@ -7482,7 +7482,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C542">
@@ -7786,7 +7786,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C565">
@@ -7877,7 +7877,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C572">
@@ -7929,7 +7929,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C576">
@@ -7955,7 +7955,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C578">
@@ -7968,7 +7968,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C579">
@@ -8051,7 +8051,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C585">
@@ -8090,7 +8090,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C588">
@@ -8155,7 +8155,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C593">
@@ -8329,7 +8329,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C606">
@@ -8368,7 +8368,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C609">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C614">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C619">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C622">
@@ -8568,7 +8568,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C624">
@@ -8581,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C625">
@@ -8607,7 +8607,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C627">
@@ -8633,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C629">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C632">
@@ -8685,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C633">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C634">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C635">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C636">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C638">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C639">
@@ -8854,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C646">
@@ -8880,7 +8880,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C648">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C650">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C652">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C653">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C654">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C658">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C668">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C673">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C677">
@@ -9296,7 +9296,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C680">
@@ -9426,7 +9426,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C690">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C691">
@@ -9478,7 +9478,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C694">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C702">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C743">
@@ -10167,7 +10167,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C747">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C773">
@@ -10921,7 +10921,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C805">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Santa María la Asunción</t>
+          <t>Santa María La Asunción</t>
         </is>
       </c>
       <c r="C806">
@@ -11610,7 +11610,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C858">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C859">
@@ -11636,7 +11636,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C860">
@@ -11649,7 +11649,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C861">
@@ -11662,7 +11662,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C862">
@@ -11675,7 +11675,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C863">
@@ -11688,7 +11688,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C864">
@@ -11701,7 +11701,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C865">
@@ -11714,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C866">
@@ -11727,7 +11727,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C867">
@@ -11740,7 +11740,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C868">
@@ -11753,7 +11753,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C869">
@@ -11927,7 +11927,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C882">
@@ -11953,7 +11953,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C884">
@@ -12096,7 +12096,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C895">
@@ -12109,7 +12109,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C896">
@@ -12213,7 +12213,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C904">
@@ -12278,7 +12278,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C909">
@@ -12317,7 +12317,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C912">
@@ -12395,7 +12395,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C918">
@@ -12525,7 +12525,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C928">
@@ -12577,7 +12577,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C932">
@@ -12616,7 +12616,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C935">
@@ -12694,7 +12694,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C941">
@@ -12759,7 +12759,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C946">
@@ -12824,7 +12824,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C951">
@@ -13045,7 +13045,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C968">
@@ -13128,7 +13128,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C974">
@@ -13154,7 +13154,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C976">
@@ -13219,7 +13219,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C981">
@@ -13232,7 +13232,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C982">
@@ -13258,7 +13258,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C984">
@@ -13297,7 +13297,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C987">
@@ -13463,7 +13463,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C999">
@@ -13476,7 +13476,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1000">
@@ -13528,7 +13528,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1004">
@@ -13658,7 +13658,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1014">
@@ -13723,7 +13723,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1019">
@@ -13788,7 +13788,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1024">
@@ -13814,7 +13814,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1026">
@@ -13931,7 +13931,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1035">
@@ -13944,7 +13944,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1036">
@@ -13957,7 +13957,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1037">
@@ -13970,7 +13970,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1038">
@@ -14266,7 +14266,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1060">
@@ -14427,7 +14427,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1072">
@@ -14796,7 +14796,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1100">
@@ -14983,7 +14983,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1114">
@@ -15009,7 +15009,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1116">
@@ -15022,7 +15022,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1117">
@@ -15248,7 +15248,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1134">
@@ -15365,7 +15365,7 @@
     <row r="1143">
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1143">
@@ -15391,7 +15391,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1145">
@@ -15443,7 +15443,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1149">
@@ -15469,7 +15469,7 @@
     <row r="1151">
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1151">
@@ -15625,7 +15625,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1163">
@@ -15638,7 +15638,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1164">
@@ -15833,7 +15833,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1179">
@@ -15846,7 +15846,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1180">
@@ -15885,7 +15885,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1183">
@@ -15898,7 +15898,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1184">
@@ -15911,7 +15911,7 @@
     <row r="1185">
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1185">
@@ -15924,7 +15924,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1186">
@@ -16067,7 +16067,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1197">
@@ -16119,7 +16119,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1201">
@@ -16171,7 +16171,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1205">
@@ -16197,7 +16197,7 @@
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1207">
@@ -16353,7 +16353,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1219">
@@ -16392,7 +16392,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1222">
@@ -16405,7 +16405,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1223">
@@ -16431,7 +16431,7 @@
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1225">
@@ -16535,7 +16535,7 @@
     <row r="1233">
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1233">
@@ -16574,7 +16574,7 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1236">
@@ -16626,7 +16626,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1240">
@@ -16847,7 +16847,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1257">
@@ -16990,7 +16990,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1268">
@@ -17286,7 +17286,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1290">
@@ -17312,7 +17312,7 @@
     <row r="1292">
       <c r="B1292" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1292">
@@ -17325,7 +17325,7 @@
     <row r="1293">
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1293">
@@ -17338,7 +17338,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1294">
@@ -17351,7 +17351,7 @@
     <row r="1295">
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1295">
@@ -17468,7 +17468,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1304">
@@ -17481,7 +17481,7 @@
     <row r="1305">
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1305">
@@ -17593,41 +17593,6 @@
       </c>
       <c r="D1313">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
